--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X26 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X26 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
-    <t>150W</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,34 +135,395 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
   </si>
   <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>150W</t>
+  </si>
+  <si>
     <t>submax</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +531,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +841,1164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.79</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.56</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.91</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="950216005"/>
+        <c:axId val="225878317"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="950216005"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225878317"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="225878317"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950216005"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="8013700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,21 +2282,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L38" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +2318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,57 +2377,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.95261574074074085</v>
+        <v>0.952615740740741</v>
       </c>
       <c r="C6">
         <v>79</v>
@@ -685,12 +2475,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.95273148148148146</v>
+        <v>0.952731481481481</v>
       </c>
       <c r="C7">
         <v>79</v>
@@ -738,12 +2528,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.95284722222222218</v>
+        <v>0.952847222222222</v>
       </c>
       <c r="C8">
         <v>79</v>
@@ -791,15 +2581,15 @@
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.95296296296296301</v>
+        <v>0.952962962962963</v>
       </c>
       <c r="C9">
         <v>74</v>
@@ -808,7 +2598,7 @@
         <v>62</v>
       </c>
       <c r="E9">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="F9">
         <v>3.1</v>
@@ -847,12 +2637,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.95307870370370373</v>
+        <v>0.953078703703704</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -900,12 +2690,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.95319444444444434</v>
+        <v>0.953194444444444</v>
       </c>
       <c r="C11">
         <v>77</v>
@@ -953,12 +2743,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.95331018518518518</v>
+        <v>0.953310185185185</v>
       </c>
       <c r="C12">
         <v>76</v>
@@ -1006,12 +2796,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.9534259259259259</v>
+        <v>0.953425925925926</v>
       </c>
       <c r="C13">
         <v>76</v>
@@ -1059,12 +2849,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.95354166666666673</v>
+        <v>0.953541666666667</v>
       </c>
       <c r="C14">
         <v>78</v>
@@ -1073,7 +2863,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="F14">
         <v>3.18</v>
@@ -1112,12 +2902,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.95365740740740745</v>
+        <v>0.953657407407407</v>
       </c>
       <c r="C15">
         <v>77</v>
@@ -1165,12 +2955,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.95377314814814806</v>
+        <v>0.953773148148148</v>
       </c>
       <c r="C16">
         <v>75</v>
@@ -1179,7 +2969,7 @@
         <v>64</v>
       </c>
       <c r="E16">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="F16">
         <v>3.2</v>
@@ -1233,12 +3023,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.9538888888888889</v>
+        <v>0.953888888888889</v>
       </c>
       <c r="C17">
         <v>74</v>
@@ -1286,39 +3076,39 @@
         <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U17" s="2">
         <f>AVERAGE(C6:C17)</f>
-        <v>76.583333333333329</v>
+        <v>76.5833333333333</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" ref="V17:AI17" si="0">AVERAGE(D6:D17)</f>
-        <v>62.916666666666664</v>
+        <v>62.9166666666667</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>4.895833333333333</v>
+        <v>4.89583333333333</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="0"/>
-        <v>3.2341666666666669</v>
+        <v>3.23416666666667</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="0"/>
-        <v>59.416666666666664</v>
+        <v>59.4166666666667</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="0"/>
-        <v>334.33333333333331</v>
+        <v>334.333333333333</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="0"/>
-        <v>122.16666666666667</v>
+        <v>122.166666666667</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="0"/>
-        <v>125.33333333333333</v>
+        <v>125.333333333333</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="0"/>
@@ -1326,7 +3116,7 @@
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="0"/>
-        <v>105.41666666666667</v>
+        <v>105.416666666667</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" si="0"/>
@@ -1334,27 +3124,27 @@
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="0"/>
-        <v>2157.9166666666665</v>
+        <v>2157.91666666667</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="0"/>
-        <v>3.9133333333333336</v>
+        <v>3.91333333333333</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" si="0"/>
-        <v>95.833333333333329</v>
+        <v>95.8333333333333</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="0"/>
-        <v>49.166666666666664</v>
+        <v>49.1666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.95400462962962962</v>
+        <v>0.95400462962963</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -1417,12 +3207,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.95412037037037034</v>
+        <v>0.95412037037037</v>
       </c>
       <c r="C19">
         <v>72</v>
@@ -1485,12 +3275,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.95423611111111117</v>
+        <v>0.954236111111111</v>
       </c>
       <c r="C20">
         <v>71</v>
@@ -1553,12 +3343,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.95435185185185178</v>
+        <v>0.954351851851852</v>
       </c>
       <c r="C21">
         <v>73</v>
@@ -1606,7 +3396,7 @@
         <v>47</v>
       </c>
       <c r="S21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -1624,12 +3414,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.95446759259259262</v>
+        <v>0.954467592592593</v>
       </c>
       <c r="C22">
         <v>85</v>
@@ -1692,12 +3482,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.95458333333333334</v>
+        <v>0.954583333333333</v>
       </c>
       <c r="C23">
         <v>108</v>
@@ -1760,12 +3550,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.95469907407407406</v>
+        <v>0.954699074074074</v>
       </c>
       <c r="C24">
         <v>110</v>
@@ -1828,12 +3618,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.95481481481481489</v>
+        <v>0.954814814814815</v>
       </c>
       <c r="C25">
         <v>106</v>
@@ -1896,12 +3686,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.9549305555555555</v>
+        <v>0.954930555555556</v>
       </c>
       <c r="C26">
         <v>105</v>
@@ -1913,7 +3703,7 @@
         <v>7.04</v>
       </c>
       <c r="F26">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="G26">
         <v>59</v>
@@ -1964,12 +3754,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.95504629629629623</v>
+        <v>0.955046296296296</v>
       </c>
       <c r="C27">
         <v>106</v>
@@ -2032,12 +3822,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.95516203703703706</v>
+        <v>0.955162037037037</v>
       </c>
       <c r="C28">
         <v>110</v>
@@ -2100,12 +3890,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.95527777777777778</v>
+        <v>0.955277777777778</v>
       </c>
       <c r="C29">
         <v>112</v>
@@ -2168,12 +3958,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.95539351851851861</v>
+        <v>0.955393518518519</v>
       </c>
       <c r="C30">
         <v>112</v>
@@ -2236,12 +4026,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.95550925925925922</v>
+        <v>0.955509259259259</v>
       </c>
       <c r="C31">
         <v>113</v>
@@ -2250,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="E31">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="F31">
         <v>5.42</v>
@@ -2304,12 +4094,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.95562499999999995</v>
+        <v>0.955625</v>
       </c>
       <c r="C32">
         <v>114</v>
@@ -2372,12 +4162,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.95574074074074078</v>
+        <v>0.955740740740741</v>
       </c>
       <c r="C33">
         <v>119</v>
@@ -2440,12 +4230,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.9558564814814815</v>
+        <v>0.955856481481482</v>
       </c>
       <c r="C34">
         <v>120</v>
@@ -2454,7 +4244,7 @@
         <v>70</v>
       </c>
       <c r="E34">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="F34">
         <v>5.59</v>
@@ -2508,12 +4298,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.95597222222222233</v>
+        <v>0.955972222222222</v>
       </c>
       <c r="C35">
         <v>121</v>
@@ -2522,7 +4312,7 @@
         <v>70</v>
       </c>
       <c r="E35">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="F35">
         <v>5.64</v>
@@ -2576,12 +4366,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.95608796296296295</v>
+        <v>0.956087962962963</v>
       </c>
       <c r="C36">
         <v>123</v>
@@ -2590,7 +4380,7 @@
         <v>71</v>
       </c>
       <c r="E36">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="F36">
         <v>5.81</v>
@@ -2644,12 +4434,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.95620370370370367</v>
+        <v>0.956203703703704</v>
       </c>
       <c r="C37">
         <v>123</v>
@@ -2712,12 +4502,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.9563194444444445</v>
+        <v>0.956319444444444</v>
       </c>
       <c r="C38">
         <v>125</v>
@@ -2726,7 +4516,7 @@
         <v>72</v>
       </c>
       <c r="E38">
-        <v>9.0399999999999991</v>
+        <v>9.04</v>
       </c>
       <c r="F38">
         <v>5.97</v>
@@ -2780,12 +4570,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.95643518518518522</v>
+        <v>0.956435185185185</v>
       </c>
       <c r="C39">
         <v>126</v>
@@ -2794,7 +4584,7 @@
         <v>70</v>
       </c>
       <c r="E39">
-        <v>8.8699999999999992</v>
+        <v>8.87</v>
       </c>
       <c r="F39">
         <v>5.86</v>
@@ -2833,7 +4623,7 @@
         <v>54</v>
       </c>
       <c r="S39" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -2851,12 +4641,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.95655092592592583</v>
+        <v>0.956550925925926</v>
       </c>
       <c r="C40">
         <v>125</v>
@@ -2865,7 +4655,7 @@
         <v>67</v>
       </c>
       <c r="E40">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="F40">
         <v>5.59</v>
@@ -2919,12 +4709,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.95666666666666667</v>
+        <v>0.956666666666667</v>
       </c>
       <c r="C41">
         <v>132</v>
@@ -2933,7 +4723,7 @@
         <v>71</v>
       </c>
       <c r="E41">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="F41">
         <v>6.24</v>
@@ -2987,12 +4777,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.95678240740740739</v>
+        <v>0.956782407407407</v>
       </c>
       <c r="C42">
         <v>134</v>
@@ -3055,12 +4845,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.95689814814814811</v>
+        <v>0.956898148148148</v>
       </c>
       <c r="C43">
         <v>141</v>
@@ -3108,7 +4898,7 @@
         <v>64</v>
       </c>
       <c r="S43" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -3126,12 +4916,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.95701388888888894</v>
+        <v>0.957013888888889</v>
       </c>
       <c r="C44">
         <v>146</v>
@@ -3170,7 +4960,7 @@
         <v>977</v>
       </c>
       <c r="O44">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="P44">
         <v>78</v>
@@ -3194,12 +4984,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.95712962962962955</v>
+        <v>0.95712962962963</v>
       </c>
       <c r="C45">
         <v>150</v>
@@ -3262,12 +5052,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.95724537037037039</v>
+        <v>0.95724537037037</v>
       </c>
       <c r="C46">
         <v>155</v>
@@ -3330,12 +5120,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.95736111111111111</v>
+        <v>0.957361111111111</v>
       </c>
       <c r="C47">
         <v>160</v>
@@ -3374,7 +5164,7 @@
         <v>899</v>
       </c>
       <c r="O47">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="P47">
         <v>70</v>
@@ -3383,7 +5173,7 @@
         <v>68</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U47" s="2">
         <f>AVERAGE(C44:C47)</f>
@@ -3399,7 +5189,7 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="1"/>
-        <v>7.5049999999999999</v>
+        <v>7.505</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
@@ -3435,7 +5225,7 @@
       </c>
       <c r="AG47" s="2">
         <f t="shared" si="1"/>
-        <v>9.0774999999999988</v>
+        <v>9.0775</v>
       </c>
       <c r="AH47" s="2">
         <f t="shared" si="1"/>
@@ -3446,12 +5236,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.95747685185185183</v>
+        <v>0.957476851851852</v>
       </c>
       <c r="C48">
         <v>164</v>
@@ -3490,7 +5280,7 @@
         <v>940</v>
       </c>
       <c r="O48">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="P48">
         <v>70</v>
@@ -3514,12 +5304,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.95759259259259266</v>
+        <v>0.957592592592593</v>
       </c>
       <c r="C49">
         <v>168</v>
@@ -3582,12 +5372,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.95770833333333327</v>
+        <v>0.957708333333333</v>
       </c>
       <c r="C50">
         <v>171</v>
@@ -3599,7 +5389,7 @@
         <v>14.46</v>
       </c>
       <c r="F50">
-        <v>9.5500000000000007</v>
+        <v>9.55</v>
       </c>
       <c r="G50">
         <v>62</v>
@@ -3636,23 +5426,23 @@
       </c>
       <c r="U50" s="2">
         <f>AVERAGE(C44:C50)</f>
-        <v>159.14285714285714</v>
+        <v>159.142857142857</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" ref="V50:AI50" si="2">AVERAGE(D44:D50)</f>
-        <v>75.285714285714292</v>
+        <v>75.2857142857143</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="2"/>
-        <v>12.08714285714286</v>
+        <v>12.0871428571429</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="2"/>
-        <v>7.9871428571428567</v>
+        <v>7.98714285714286</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="2"/>
-        <v>59.714285714285715</v>
+        <v>59.7142857142857</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="2"/>
@@ -3660,47 +5450,47 @@
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="2"/>
-        <v>125.14285714285714</v>
+        <v>125.142857142857</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="2"/>
-        <v>125.71428571428571</v>
+        <v>125.714285714286</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="2"/>
-        <v>77.571428571428569</v>
+        <v>77.5714285714286</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="2"/>
-        <v>125.14285714285714</v>
+        <v>125.142857142857</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="2"/>
-        <v>581.57142857142856</v>
+        <v>581.571428571429</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="2"/>
-        <v>880.14285714285711</v>
+        <v>880.142857142857</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="2"/>
-        <v>9.6628571428571437</v>
+        <v>9.66285714285714</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="2"/>
-        <v>76.142857142857139</v>
+        <v>76.1428571428571</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="2"/>
-        <v>68.857142857142861</v>
+        <v>68.8571428571429</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.95782407407407411</v>
+        <v>0.957824074074074</v>
       </c>
       <c r="C51">
         <v>172</v>
@@ -3763,12 +5553,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.95793981481481483</v>
+        <v>0.957939814814815</v>
       </c>
       <c r="C52">
         <v>176</v>
@@ -3831,12 +5621,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.95805555555555555</v>
+        <v>0.958055555555556</v>
       </c>
       <c r="C53">
         <v>177</v>
@@ -3848,7 +5638,7 @@
         <v>13.3</v>
       </c>
       <c r="F53">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="G53">
         <v>63</v>
@@ -3889,15 +5679,15 @@
       </c>
       <c r="V53" s="2">
         <f t="shared" ref="V53:AI53" si="3">AVERAGE(D44:D53)</f>
-        <v>77.900000000000006</v>
+        <v>77.9</v>
       </c>
       <c r="W53" s="2">
         <f t="shared" si="3"/>
-        <v>12.896000000000001</v>
+        <v>12.896</v>
       </c>
       <c r="X53" s="2">
         <f t="shared" si="3"/>
-        <v>8.5220000000000002</v>
+        <v>8.522</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="3"/>
@@ -3917,7 +5707,7 @@
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="3"/>
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="AD53" s="2">
         <f t="shared" si="3"/>
@@ -3925,7 +5715,7 @@
       </c>
       <c r="AE53" s="2">
         <f t="shared" si="3"/>
-        <v>549.29999999999995</v>
+        <v>549.3</v>
       </c>
       <c r="AF53" s="2">
         <f t="shared" si="3"/>
@@ -3944,12 +5734,12 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.95817129629629638</v>
+        <v>0.958171296296296</v>
       </c>
       <c r="C54">
         <v>167</v>
@@ -3961,7 +5751,7 @@
         <v>13.92</v>
       </c>
       <c r="F54">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="G54">
         <v>64</v>
@@ -3997,12 +5787,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.95828703703703699</v>
+        <v>0.958287037037037</v>
       </c>
       <c r="C55">
         <v>156</v>
@@ -4014,7 +5804,7 @@
         <v>13.06</v>
       </c>
       <c r="F55">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="G55">
         <v>65</v>
@@ -4050,15 +5840,15 @@
         <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.95840277777777771</v>
+        <v>0.958402777777778</v>
       </c>
       <c r="C56">
         <v>149</v>
@@ -4097,7 +5887,7 @@
         <v>988</v>
       </c>
       <c r="O56">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="P56">
         <v>81</v>
@@ -4106,12 +5896,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.95851851851851855</v>
+        <v>0.958518518518519</v>
       </c>
       <c r="C57">
         <v>129</v>
@@ -4150,7 +5940,7 @@
         <v>956</v>
       </c>
       <c r="O57">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="P57">
         <v>62</v>
@@ -4159,12 +5949,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.95863425925925927</v>
+        <v>0.958634259259259</v>
       </c>
       <c r="C58">
         <v>130</v>
@@ -4212,36 +6002,46 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X26 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X26 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\26Sept2013_Xining_Physioflow_X22X26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F4C61D-2911-4901-ACC6-B32759512CDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,14 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,351 +187,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -531,322 +209,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -858,7 +251,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,6 +276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -908,173 +301,170 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="53"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +485,7 @@
                   <c:v>5.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.69</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.75</c:v>
@@ -1110,13 +500,13 @@
                   <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.81</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.85</c:v>
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.84</c:v>
@@ -1161,7 +551,7 @@
                   <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.21</c:v>
+                  <c:v>8.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>8.09</c:v>
@@ -1170,28 +560,28 @@
                   <c:v>8.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.46</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.54</c:v>
+                  <c:v>8.5399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.79</c:v>
+                  <c:v>8.7899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>9.17</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.04</c:v>
+                  <c:v>9.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.87</c:v>
+                  <c:v>8.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.46</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.45</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9.43</c:v>
@@ -1248,6 +638,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8C2-4132-8205-DD21B6F08E3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1257,7 +652,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="950216005"/>
         <c:axId val="225878317"/>
@@ -1269,6 +663,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1302,6 +697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="225878317"/>
@@ -1360,6 +756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="950216005"/>
@@ -1400,6 +797,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1967,28 +1365,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>223520</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361382</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149860</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>11262</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>149859</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2692400" y="8013700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2282,21 +1686,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="79" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2422,12 +1826,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.952615740740741</v>
+        <v>0.95261574074074096</v>
       </c>
       <c r="C6">
         <v>79</v>
@@ -2475,12 +1879,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.952731481481481</v>
+        <v>0.95273148148148101</v>
       </c>
       <c r="C7">
         <v>79</v>
@@ -2528,12 +1932,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.952847222222222</v>
+        <v>0.95284722222222196</v>
       </c>
       <c r="C8">
         <v>79</v>
@@ -2584,12 +1988,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.952962962962963</v>
+        <v>0.95296296296296301</v>
       </c>
       <c r="C9">
         <v>74</v>
@@ -2598,7 +2002,7 @@
         <v>62</v>
       </c>
       <c r="E9">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F9">
         <v>3.1</v>
@@ -2637,12 +2041,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>0.953078703703704</v>
+        <v>0.95307870370370396</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -2690,12 +2094,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.953194444444444</v>
+        <v>0.95319444444444401</v>
       </c>
       <c r="C11">
         <v>77</v>
@@ -2743,12 +2147,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>0.953310185185185</v>
+        <v>0.95331018518518496</v>
       </c>
       <c r="C12">
         <v>76</v>
@@ -2796,12 +2200,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.953425925925926</v>
+        <v>0.95342592592592601</v>
       </c>
       <c r="C13">
         <v>76</v>
@@ -2849,12 +2253,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.953541666666667</v>
+        <v>0.95354166666666695</v>
       </c>
       <c r="C14">
         <v>78</v>
@@ -2863,7 +2267,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F14">
         <v>3.18</v>
@@ -2902,12 +2306,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.953657407407407</v>
+        <v>0.95365740740740701</v>
       </c>
       <c r="C15">
         <v>77</v>
@@ -2957,10 +2361,10 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.953773148148148</v>
+        <v>0.95377314814814795</v>
       </c>
       <c r="C16">
         <v>75</v>
@@ -2969,7 +2373,7 @@
         <v>64</v>
       </c>
       <c r="E16">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F16">
         <v>3.2</v>
@@ -3025,10 +2429,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.953888888888889</v>
+        <v>0.95388888888888901</v>
       </c>
       <c r="C17">
         <v>74</v>
@@ -3080,35 +2484,35 @@
       </c>
       <c r="U17" s="2">
         <f>AVERAGE(C6:C17)</f>
-        <v>76.5833333333333</v>
+        <v>76.583333333333329</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" ref="V17:AI17" si="0">AVERAGE(D6:D17)</f>
-        <v>62.9166666666667</v>
+        <v>62.916666666666664</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>4.89583333333333</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="0"/>
-        <v>3.23416666666667</v>
+        <v>3.2341666666666669</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="0"/>
-        <v>59.4166666666667</v>
+        <v>59.416666666666664</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="0"/>
-        <v>334.333333333333</v>
+        <v>334.33333333333331</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="0"/>
-        <v>122.166666666667</v>
+        <v>122.16666666666667</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="0"/>
-        <v>125.333333333333</v>
+        <v>125.33333333333333</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="0"/>
@@ -3116,7 +2520,7 @@
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="0"/>
-        <v>105.416666666667</v>
+        <v>105.41666666666667</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" si="0"/>
@@ -3124,27 +2528,27 @@
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="0"/>
-        <v>2157.91666666667</v>
+        <v>2157.9166666666665</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="0"/>
-        <v>3.91333333333333</v>
+        <v>3.9133333333333336</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" si="0"/>
-        <v>95.8333333333333</v>
+        <v>95.833333333333329</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="0"/>
-        <v>49.1666666666667</v>
+        <v>49.166666666666664</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.95400462962963</v>
+        <v>0.95400462962962995</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -3209,10 +2613,10 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.95412037037037</v>
+        <v>0.95412037037037001</v>
       </c>
       <c r="C19">
         <v>72</v>
@@ -3277,10 +2681,10 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.954236111111111</v>
+        <v>0.95423611111111095</v>
       </c>
       <c r="C20">
         <v>71</v>
@@ -3345,10 +2749,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.954351851851852</v>
+        <v>0.95435185185185201</v>
       </c>
       <c r="C21">
         <v>73</v>
@@ -3416,10 +2820,10 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.954467592592593</v>
+        <v>0.95446759259259295</v>
       </c>
       <c r="C22">
         <v>85</v>
@@ -3484,10 +2888,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.954583333333333</v>
+        <v>0.95458333333333301</v>
       </c>
       <c r="C23">
         <v>108</v>
@@ -3552,10 +2956,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.954699074074074</v>
+        <v>0.95469907407407395</v>
       </c>
       <c r="C24">
         <v>110</v>
@@ -3620,7 +3024,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
         <v>0.954814814814815</v>
@@ -3688,10 +3092,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.954930555555556</v>
+        <v>0.95493055555555595</v>
       </c>
       <c r="C26">
         <v>105</v>
@@ -3703,7 +3107,7 @@
         <v>7.04</v>
       </c>
       <c r="F26">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G26">
         <v>59</v>
@@ -3756,7 +3160,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
         <v>0.955046296296296</v>
@@ -3824,10 +3228,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.955162037037037</v>
+        <v>0.95516203703703695</v>
       </c>
       <c r="C28">
         <v>110</v>
@@ -3892,7 +3296,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
         <v>0.955277777777778</v>
@@ -3960,10 +3364,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.955393518518519</v>
+        <v>0.95539351851851895</v>
       </c>
       <c r="C30">
         <v>112</v>
@@ -4028,7 +3432,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
         <v>0.955509259259259</v>
@@ -4040,7 +3444,7 @@
         <v>72</v>
       </c>
       <c r="E31">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F31">
         <v>5.42</v>
@@ -4096,10 +3500,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.955625</v>
+        <v>0.95562499999999995</v>
       </c>
       <c r="C32">
         <v>114</v>
@@ -4164,7 +3568,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
         <v>0.955740740740741</v>
@@ -4232,10 +3636,10 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.955856481481482</v>
+        <v>0.95585648148148195</v>
       </c>
       <c r="C34">
         <v>120</v>
@@ -4244,7 +3648,7 @@
         <v>70</v>
       </c>
       <c r="E34">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="F34">
         <v>5.59</v>
@@ -4300,7 +3704,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
         <v>0.955972222222222</v>
@@ -4312,7 +3716,7 @@
         <v>70</v>
       </c>
       <c r="E35">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F35">
         <v>5.64</v>
@@ -4368,10 +3772,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.956087962962963</v>
+        <v>0.95608796296296295</v>
       </c>
       <c r="C36">
         <v>123</v>
@@ -4380,7 +3784,7 @@
         <v>71</v>
       </c>
       <c r="E36">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="F36">
         <v>5.81</v>
@@ -4436,7 +3840,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
         <v>0.956203703703704</v>
@@ -4504,10 +3908,10 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.956319444444444</v>
+        <v>0.95631944444444394</v>
       </c>
       <c r="C38">
         <v>125</v>
@@ -4516,7 +3920,7 @@
         <v>72</v>
       </c>
       <c r="E38">
-        <v>9.04</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="F38">
         <v>5.97</v>
@@ -4572,7 +3976,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
         <v>0.956435185185185</v>
@@ -4584,7 +3988,7 @@
         <v>70</v>
       </c>
       <c r="E39">
-        <v>8.87</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="F39">
         <v>5.86</v>
@@ -4643,10 +4047,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.956550925925926</v>
+        <v>0.95655092592592605</v>
       </c>
       <c r="C40">
         <v>125</v>
@@ -4655,7 +4059,7 @@
         <v>67</v>
       </c>
       <c r="E40">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="F40">
         <v>5.59</v>
@@ -4711,7 +4115,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
         <v>0.956666666666667</v>
@@ -4723,7 +4127,7 @@
         <v>71</v>
       </c>
       <c r="E41">
-        <v>9.45</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="F41">
         <v>6.24</v>
@@ -4779,10 +4183,10 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.956782407407407</v>
+        <v>0.95678240740740705</v>
       </c>
       <c r="C42">
         <v>134</v>
@@ -4847,7 +4251,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
         <v>0.956898148148148</v>
@@ -4918,10 +4322,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.957013888888889</v>
+        <v>0.95701388888888905</v>
       </c>
       <c r="C44">
         <v>146</v>
@@ -4960,7 +4364,7 @@
         <v>977</v>
       </c>
       <c r="O44">
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="P44">
         <v>78</v>
@@ -4986,7 +4390,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
         <v>0.95712962962963</v>
@@ -5054,10 +4458,10 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.95724537037037</v>
+        <v>0.95724537037037005</v>
       </c>
       <c r="C46">
         <v>155</v>
@@ -5122,7 +4526,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
         <v>0.957361111111111</v>
@@ -5164,7 +4568,7 @@
         <v>899</v>
       </c>
       <c r="O47">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="P47">
         <v>70</v>
@@ -5189,7 +4593,7 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="1"/>
-        <v>7.505</v>
+        <v>7.5049999999999999</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
@@ -5225,7 +4629,7 @@
       </c>
       <c r="AG47" s="2">
         <f t="shared" si="1"/>
-        <v>9.0775</v>
+        <v>9.0774999999999988</v>
       </c>
       <c r="AH47" s="2">
         <f t="shared" si="1"/>
@@ -5238,10 +4642,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.957476851851852</v>
+        <v>0.95747685185185205</v>
       </c>
       <c r="C48">
         <v>164</v>
@@ -5280,7 +4684,7 @@
         <v>940</v>
       </c>
       <c r="O48">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="P48">
         <v>70</v>
@@ -5306,10 +4710,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.957592592592593</v>
+        <v>0.95759259259259299</v>
       </c>
       <c r="C49">
         <v>168</v>
@@ -5374,10 +4778,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.957708333333333</v>
+        <v>0.95770833333333305</v>
       </c>
       <c r="C50">
         <v>171</v>
@@ -5385,11 +4789,11 @@
       <c r="D50">
         <v>84</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>14.46</v>
       </c>
       <c r="F50">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="G50">
         <v>62</v>
@@ -5426,23 +4830,23 @@
       </c>
       <c r="U50" s="2">
         <f>AVERAGE(C44:C50)</f>
-        <v>159.142857142857</v>
+        <v>159.14285714285714</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" ref="V50:AI50" si="2">AVERAGE(D44:D50)</f>
-        <v>75.2857142857143</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="2"/>
-        <v>12.0871428571429</v>
+        <v>12.08714285714286</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="2"/>
-        <v>7.98714285714286</v>
+        <v>7.9871428571428567</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="2"/>
-        <v>59.7142857142857</v>
+        <v>59.714285714285715</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="2"/>
@@ -5450,47 +4854,47 @@
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="2"/>
-        <v>125.142857142857</v>
+        <v>125.14285714285714</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="2"/>
-        <v>125.714285714286</v>
+        <v>125.71428571428571</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="2"/>
-        <v>77.5714285714286</v>
+        <v>77.571428571428569</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="2"/>
-        <v>125.142857142857</v>
+        <v>125.14285714285714</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="2"/>
-        <v>581.571428571429</v>
+        <v>581.57142857142856</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="2"/>
-        <v>880.142857142857</v>
+        <v>880.14285714285711</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="2"/>
-        <v>9.66285714285714</v>
+        <v>9.6628571428571437</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="2"/>
-        <v>76.1428571428571</v>
+        <v>76.142857142857139</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="2"/>
-        <v>68.8571428571429</v>
+        <v>68.857142857142861</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.957824074074074</v>
+        <v>0.95782407407407399</v>
       </c>
       <c r="C51">
         <v>172</v>
@@ -5498,7 +4902,7 @@
       <c r="D51">
         <v>93</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>16.14</v>
       </c>
       <c r="F51">
@@ -5555,10 +4959,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.957939814814815</v>
+        <v>0.95793981481481505</v>
       </c>
       <c r="C52">
         <v>176</v>
@@ -5566,7 +4970,7 @@
       <c r="D52">
         <v>84</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>14.91</v>
       </c>
       <c r="F52">
@@ -5623,10 +5027,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.958055555555556</v>
+        <v>0.95805555555555599</v>
       </c>
       <c r="C53">
         <v>177</v>
@@ -5638,7 +5042,7 @@
         <v>13.3</v>
       </c>
       <c r="F53">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="G53">
         <v>63</v>
@@ -5679,15 +5083,15 @@
       </c>
       <c r="V53" s="2">
         <f t="shared" ref="V53:AI53" si="3">AVERAGE(D44:D53)</f>
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="W53" s="2">
         <f t="shared" si="3"/>
-        <v>12.896</v>
+        <v>12.896000000000001</v>
       </c>
       <c r="X53" s="2">
         <f t="shared" si="3"/>
-        <v>8.522</v>
+        <v>8.5220000000000002</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="3"/>
@@ -5707,7 +5111,7 @@
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="3"/>
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="AD53" s="2">
         <f t="shared" si="3"/>
@@ -5715,7 +5119,7 @@
       </c>
       <c r="AE53" s="2">
         <f t="shared" si="3"/>
-        <v>549.3</v>
+        <v>549.29999999999995</v>
       </c>
       <c r="AF53" s="2">
         <f t="shared" si="3"/>
@@ -5734,12 +5138,12 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.958171296296296</v>
+        <v>0.95817129629629605</v>
       </c>
       <c r="C54">
         <v>167</v>
@@ -5751,7 +5155,7 @@
         <v>13.92</v>
       </c>
       <c r="F54">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G54">
         <v>64</v>
@@ -5787,12 +5191,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.958287037037037</v>
+        <v>0.95828703703703699</v>
       </c>
       <c r="C55">
         <v>156</v>
@@ -5804,7 +5208,7 @@
         <v>13.06</v>
       </c>
       <c r="F55">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="G55">
         <v>65</v>
@@ -5843,12 +5247,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.958402777777778</v>
+        <v>0.95840277777777805</v>
       </c>
       <c r="C56">
         <v>149</v>
@@ -5887,7 +5291,7 @@
         <v>988</v>
       </c>
       <c r="O56">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="P56">
         <v>81</v>
@@ -5896,12 +5300,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.958518518518519</v>
+        <v>0.95851851851851899</v>
       </c>
       <c r="C57">
         <v>129</v>
@@ -5940,7 +5344,7 @@
         <v>956</v>
       </c>
       <c r="O57">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="P57">
         <v>62</v>
@@ -5949,12 +5353,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.958634259259259</v>
+        <v>0.95863425925925905</v>
       </c>
       <c r="C58">
         <v>130</v>
@@ -6002,46 +5406,37 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:35">
       <c r="A60" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>